--- a/doxy稳态释放量.xlsx
+++ b/doxy稳态释放量.xlsx
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +557,7 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -592,7 +592,7 @@
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -627,7 +627,7 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -662,7 +662,7 @@
         <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -697,7 +697,7 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -732,7 +732,7 @@
         <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -767,7 +767,7 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
         <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -837,7 +837,7 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -872,7 +872,7 @@
         <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -907,7 +907,7 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -942,7 +942,7 @@
         <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -977,7 +977,7 @@
         <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1012,7 +1012,7 @@
         <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1047,7 +1047,7 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1082,7 +1082,7 @@
         <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1117,7 @@
         <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1152,7 +1152,7 @@
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -1187,7 +1187,7 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -1222,7 +1222,7 @@
         <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1257,7 +1257,7 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1292,7 +1292,7 @@
         <v>100</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1327,7 +1327,7 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -1362,7 +1362,7 @@
         <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -1397,7 +1397,7 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -1432,7 +1432,7 @@
         <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1467,7 +1467,7 @@
         <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1502,7 @@
         <v>100</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1537,7 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -1572,7 +1572,7 @@
         <v>100</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -1607,7 +1607,7 @@
         <v>100</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1642,7 +1642,7 @@
         <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1677,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1712,7 +1712,7 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1747,7 +1747,7 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -1782,7 +1782,7 @@
         <v>100</v>
       </c>
       <c r="K38" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>100</v>
       </c>
       <c r="K39" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1852,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -1887,7 +1887,7 @@
         <v>100</v>
       </c>
       <c r="K41" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1922,7 +1922,7 @@
         <v>100</v>
       </c>
       <c r="K42" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -1957,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -1992,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2027,7 +2027,7 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -2062,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2097,7 +2097,7 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2132,7 +2132,7 @@
         <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2167,7 +2167,7 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -2202,7 +2202,7 @@
         <v>100</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -2237,7 +2237,7 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
@@ -2272,7 +2272,7 @@
         <v>100</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -2307,7 +2307,7 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -2342,7 +2342,7 @@
         <v>100</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
@@ -2377,7 +2377,7 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -2412,7 +2412,7 @@
         <v>100</v>
       </c>
       <c r="K56" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -2447,7 +2447,7 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -2482,7 +2482,7 @@
         <v>100</v>
       </c>
       <c r="K58" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -2517,7 +2517,7 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -2552,7 +2552,7 @@
         <v>100</v>
       </c>
       <c r="K60" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -2587,7 +2587,7 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -2622,7 +2622,7 @@
         <v>100</v>
       </c>
       <c r="K62" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -2657,7 +2657,7 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -2692,7 +2692,7 @@
         <v>100</v>
       </c>
       <c r="K64" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -2762,7 +2762,7 @@
         <v>100</v>
       </c>
       <c r="K66" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -2797,7 +2797,7 @@
         <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -2832,7 +2832,7 @@
         <v>100</v>
       </c>
       <c r="K68" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -2867,7 +2867,7 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -2902,7 +2902,7 @@
         <v>100</v>
       </c>
       <c r="K70" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -2937,7 +2937,7 @@
         <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -2972,7 +2972,7 @@
         <v>100</v>
       </c>
       <c r="K72" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
@@ -3007,7 +3007,7 @@
         <v>100</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -3042,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="K74" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
@@ -3077,7 +3077,7 @@
         <v>100</v>
       </c>
       <c r="K75" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -3112,7 +3112,7 @@
         <v>100</v>
       </c>
       <c r="K76" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77">
@@ -3147,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="K77" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
@@ -3182,7 +3182,7 @@
         <v>100</v>
       </c>
       <c r="K78" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -3217,7 +3217,7 @@
         <v>100</v>
       </c>
       <c r="K79" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -3252,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="K80" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -3287,7 +3287,7 @@
         <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -3322,7 +3322,7 @@
         <v>100</v>
       </c>
       <c r="K82" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -3357,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="K83" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
@@ -3392,7 +3392,7 @@
         <v>100</v>
       </c>
       <c r="K84" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -3427,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="K85" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -3462,7 +3462,7 @@
         <v>100</v>
       </c>
       <c r="K86" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87">
@@ -3497,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -3532,7 +3532,7 @@
         <v>100</v>
       </c>
       <c r="K88" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89">
@@ -3567,7 +3567,7 @@
         <v>100</v>
       </c>
       <c r="K89" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -3602,7 +3602,7 @@
         <v>100</v>
       </c>
       <c r="K90" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -3637,7 +3637,7 @@
         <v>100</v>
       </c>
       <c r="K91" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -3672,7 +3672,7 @@
         <v>100</v>
       </c>
       <c r="K92" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -3707,7 +3707,7 @@
         <v>100</v>
       </c>
       <c r="K93" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -3742,7 +3742,7 @@
         <v>100</v>
       </c>
       <c r="K94" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -3777,7 +3777,7 @@
         <v>100</v>
       </c>
       <c r="K95" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -3812,7 +3812,7 @@
         <v>100</v>
       </c>
       <c r="K96" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -3847,7 +3847,7 @@
         <v>100</v>
       </c>
       <c r="K97" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -3882,7 +3882,7 @@
         <v>100</v>
       </c>
       <c r="K98" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -3917,7 +3917,7 @@
         <v>100</v>
       </c>
       <c r="K99" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -3952,7 +3952,7 @@
         <v>100</v>
       </c>
       <c r="K100" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
@@ -3987,7 +3987,7 @@
         <v>100</v>
       </c>
       <c r="K101" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
@@ -4022,7 +4022,7 @@
         <v>100</v>
       </c>
       <c r="K102" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -4057,7 +4057,7 @@
         <v>100</v>
       </c>
       <c r="K103" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -4092,7 +4092,7 @@
         <v>100</v>
       </c>
       <c r="K104" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
@@ -4127,7 +4127,7 @@
         <v>100</v>
       </c>
       <c r="K105" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -4162,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="K106" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -4197,7 +4197,7 @@
         <v>100</v>
       </c>
       <c r="K107" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -4232,7 +4232,7 @@
         <v>100</v>
       </c>
       <c r="K108" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109">
@@ -4267,7 +4267,7 @@
         <v>100</v>
       </c>
       <c r="K109" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -4302,7 +4302,7 @@
         <v>100</v>
       </c>
       <c r="K110" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -4337,7 +4337,7 @@
         <v>100</v>
       </c>
       <c r="K111" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -4372,7 +4372,7 @@
         <v>100</v>
       </c>
       <c r="K112" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -4407,7 +4407,7 @@
         <v>100</v>
       </c>
       <c r="K113" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -4442,7 +4442,7 @@
         <v>100</v>
       </c>
       <c r="K114" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -4477,7 +4477,7 @@
         <v>100</v>
       </c>
       <c r="K115" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -4512,7 +4512,7 @@
         <v>100</v>
       </c>
       <c r="K116" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
@@ -4547,7 +4547,7 @@
         <v>100</v>
       </c>
       <c r="K117" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
@@ -4582,7 +4582,7 @@
         <v>100</v>
       </c>
       <c r="K118" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
@@ -4617,7 +4617,7 @@
         <v>100</v>
       </c>
       <c r="K119" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
@@ -4652,7 +4652,7 @@
         <v>100</v>
       </c>
       <c r="K120" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121">
@@ -4687,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
@@ -4722,7 +4722,7 @@
         <v>100</v>
       </c>
       <c r="K122" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -4757,7 +4757,7 @@
         <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
@@ -4792,7 +4792,7 @@
         <v>100</v>
       </c>
       <c r="K124" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125">
@@ -4827,7 +4827,7 @@
         <v>100</v>
       </c>
       <c r="K125" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126">
@@ -4862,7 +4862,7 @@
         <v>100</v>
       </c>
       <c r="K126" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -4897,7 +4897,7 @@
         <v>100</v>
       </c>
       <c r="K127" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128">
@@ -4932,7 +4932,7 @@
         <v>100</v>
       </c>
       <c r="K128" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
@@ -4967,7 +4967,7 @@
         <v>100</v>
       </c>
       <c r="K129" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
@@ -5002,7 +5002,7 @@
         <v>100</v>
       </c>
       <c r="K130" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -5037,7 +5037,7 @@
         <v>100</v>
       </c>
       <c r="K131" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
@@ -5072,7 +5072,7 @@
         <v>100</v>
       </c>
       <c r="K132" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -5107,7 +5107,7 @@
         <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
@@ -5142,7 +5142,7 @@
         <v>100</v>
       </c>
       <c r="K134" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -5177,7 +5177,7 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136">
@@ -5212,7 +5212,7 @@
         <v>100</v>
       </c>
       <c r="K136" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
@@ -5247,7 +5247,7 @@
         <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
@@ -5282,7 +5282,7 @@
         <v>100</v>
       </c>
       <c r="K138" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
@@ -5317,7 +5317,7 @@
         <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
@@ -5352,7 +5352,7 @@
         <v>100</v>
       </c>
       <c r="K140" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
@@ -5387,7 +5387,7 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
@@ -5422,7 +5422,7 @@
         <v>100</v>
       </c>
       <c r="K142" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -5457,7 +5457,7 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
@@ -5492,7 +5492,7 @@
         <v>100</v>
       </c>
       <c r="K144" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -5527,7 +5527,7 @@
         <v>100</v>
       </c>
       <c r="K145" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
@@ -5562,7 +5562,7 @@
         <v>100</v>
       </c>
       <c r="K146" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
@@ -5597,7 +5597,7 @@
         <v>100</v>
       </c>
       <c r="K147" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
@@ -5632,7 +5632,7 @@
         <v>100</v>
       </c>
       <c r="K148" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
@@ -5667,7 +5667,7 @@
         <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
@@ -5702,7 +5702,7 @@
         <v>100</v>
       </c>
       <c r="K150" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151">
@@ -5737,7 +5737,7 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152">
@@ -5772,7 +5772,7 @@
         <v>100</v>
       </c>
       <c r="K152" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153">
@@ -5807,7 +5807,7 @@
         <v>100</v>
       </c>
       <c r="K153" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154">
@@ -5842,7 +5842,7 @@
         <v>100</v>
       </c>
       <c r="K154" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
@@ -5877,7 +5877,7 @@
         <v>100</v>
       </c>
       <c r="K155" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156">
@@ -5912,7 +5912,7 @@
         <v>100</v>
       </c>
       <c r="K156" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157">
@@ -5947,7 +5947,7 @@
         <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158">
@@ -5982,7 +5982,7 @@
         <v>100</v>
       </c>
       <c r="K158" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
@@ -6017,7 +6017,7 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160">
@@ -6052,7 +6052,7 @@
         <v>100</v>
       </c>
       <c r="K160" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
@@ -6087,7 +6087,7 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -6122,7 +6122,7 @@
         <v>100</v>
       </c>
       <c r="K162" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -6157,7 +6157,7 @@
         <v>100</v>
       </c>
       <c r="K163" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
@@ -6192,7 +6192,7 @@
         <v>100</v>
       </c>
       <c r="K164" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165">
@@ -6227,7 +6227,7 @@
         <v>100</v>
       </c>
       <c r="K165" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
@@ -6262,7 +6262,7 @@
         <v>100</v>
       </c>
       <c r="K166" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -6297,7 +6297,7 @@
         <v>100</v>
       </c>
       <c r="K167" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
@@ -6332,7 +6332,7 @@
         <v>100</v>
       </c>
       <c r="K168" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169">
@@ -6367,7 +6367,7 @@
         <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170">
@@ -6402,7 +6402,7 @@
         <v>100</v>
       </c>
       <c r="K170" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -6437,7 +6437,7 @@
         <v>100</v>
       </c>
       <c r="K171" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
@@ -6472,7 +6472,7 @@
         <v>100</v>
       </c>
       <c r="K172" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -6507,7 +6507,7 @@
         <v>100</v>
       </c>
       <c r="K173" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -6542,7 +6542,7 @@
         <v>100</v>
       </c>
       <c r="K174" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -6577,7 +6577,7 @@
         <v>100</v>
       </c>
       <c r="K175" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -6612,7 +6612,7 @@
         <v>100</v>
       </c>
       <c r="K176" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
@@ -6647,7 +6647,7 @@
         <v>100</v>
       </c>
       <c r="K177" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
@@ -6682,7 +6682,7 @@
         <v>100</v>
       </c>
       <c r="K178" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179">
@@ -6717,7 +6717,7 @@
         <v>100</v>
       </c>
       <c r="K179" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180">
@@ -6752,7 +6752,7 @@
         <v>100</v>
       </c>
       <c r="K180" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181">
@@ -6787,7 +6787,7 @@
         <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182">
@@ -6822,7 +6822,7 @@
         <v>100</v>
       </c>
       <c r="K182" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183">
@@ -6857,7 +6857,7 @@
         <v>100</v>
       </c>
       <c r="K183" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184">
@@ -6892,7 +6892,7 @@
         <v>100</v>
       </c>
       <c r="K184" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185">
@@ -6927,7 +6927,7 @@
         <v>100</v>
       </c>
       <c r="K185" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186">
@@ -6962,7 +6962,7 @@
         <v>100</v>
       </c>
       <c r="K186" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187">
@@ -6997,7 +6997,7 @@
         <v>100</v>
       </c>
       <c r="K187" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188">
@@ -7032,7 +7032,7 @@
         <v>100</v>
       </c>
       <c r="K188" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -7067,7 +7067,7 @@
         <v>100</v>
       </c>
       <c r="K189" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
@@ -7102,7 +7102,7 @@
         <v>100</v>
       </c>
       <c r="K190" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
@@ -7137,7 +7137,7 @@
         <v>100</v>
       </c>
       <c r="K191" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192">
@@ -7172,7 +7172,7 @@
         <v>100</v>
       </c>
       <c r="K192" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -7207,7 +7207,7 @@
         <v>100</v>
       </c>
       <c r="K193" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
@@ -7242,7 +7242,7 @@
         <v>100</v>
       </c>
       <c r="K194" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -7277,7 +7277,7 @@
         <v>100</v>
       </c>
       <c r="K195" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
@@ -7312,7 +7312,7 @@
         <v>100</v>
       </c>
       <c r="K196" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
@@ -7347,7 +7347,7 @@
         <v>100</v>
       </c>
       <c r="K197" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
@@ -7382,7 +7382,7 @@
         <v>100</v>
       </c>
       <c r="K198" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
@@ -7417,7 +7417,7 @@
         <v>100</v>
       </c>
       <c r="K199" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200">
@@ -7452,7 +7452,7 @@
         <v>100</v>
       </c>
       <c r="K200" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201">
@@ -7487,7 +7487,7 @@
         <v>100</v>
       </c>
       <c r="K201" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
@@ -7522,7 +7522,7 @@
         <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203">
@@ -7557,7 +7557,7 @@
         <v>100</v>
       </c>
       <c r="K203" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204">
@@ -7592,7 +7592,7 @@
         <v>100</v>
       </c>
       <c r="K204" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
@@ -7627,7 +7627,7 @@
         <v>100</v>
       </c>
       <c r="K205" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
@@ -7662,7 +7662,7 @@
         <v>100</v>
       </c>
       <c r="K206" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
@@ -7697,7 +7697,7 @@
         <v>100</v>
       </c>
       <c r="K207" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
@@ -7732,7 +7732,7 @@
         <v>100</v>
       </c>
       <c r="K208" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -7767,7 +7767,7 @@
         <v>100</v>
       </c>
       <c r="K209" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210">
@@ -7802,7 +7802,7 @@
         <v>100</v>
       </c>
       <c r="K210" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
@@ -7837,7 +7837,7 @@
         <v>100</v>
       </c>
       <c r="K211" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
@@ -7872,7 +7872,7 @@
         <v>100</v>
       </c>
       <c r="K212" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
@@ -7907,7 +7907,7 @@
         <v>100</v>
       </c>
       <c r="K213" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214">
@@ -7942,7 +7942,7 @@
         <v>100</v>
       </c>
       <c r="K214" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215">
@@ -7977,7 +7977,7 @@
         <v>100</v>
       </c>
       <c r="K215" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
@@ -8012,7 +8012,7 @@
         <v>100</v>
       </c>
       <c r="K216" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217">
@@ -8047,7 +8047,7 @@
         <v>100</v>
       </c>
       <c r="K217" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218">
@@ -8082,7 +8082,7 @@
         <v>100</v>
       </c>
       <c r="K218" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -8117,7 +8117,7 @@
         <v>100</v>
       </c>
       <c r="K219" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
@@ -8152,7 +8152,7 @@
         <v>100</v>
       </c>
       <c r="K220" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
@@ -8187,7 +8187,7 @@
         <v>100</v>
       </c>
       <c r="K221" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
@@ -8222,7 +8222,7 @@
         <v>100</v>
       </c>
       <c r="K222" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -8257,7 +8257,7 @@
         <v>100</v>
       </c>
       <c r="K223" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224">
@@ -8292,7 +8292,7 @@
         <v>100</v>
       </c>
       <c r="K224" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225">
@@ -8327,7 +8327,7 @@
         <v>100</v>
       </c>
       <c r="K225" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
@@ -8362,7 +8362,7 @@
         <v>100</v>
       </c>
       <c r="K226" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="227">
@@ -8397,7 +8397,7 @@
         <v>100</v>
       </c>
       <c r="K227" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228">
@@ -8432,7 +8432,7 @@
         <v>100</v>
       </c>
       <c r="K228" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="229">
@@ -8467,7 +8467,7 @@
         <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230">
@@ -8502,7 +8502,7 @@
         <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
@@ -8537,7 +8537,7 @@
         <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232">
@@ -8572,7 +8572,7 @@
         <v>100</v>
       </c>
       <c r="K232" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233">
@@ -8607,7 +8607,7 @@
         <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234">
@@ -8642,7 +8642,7 @@
         <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
@@ -8677,7 +8677,7 @@
         <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236">
@@ -8712,7 +8712,7 @@
         <v>100</v>
       </c>
       <c r="K236" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237">
@@ -8747,7 +8747,7 @@
         <v>100</v>
       </c>
       <c r="K237" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238">
@@ -8782,7 +8782,7 @@
         <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239">
@@ -8817,7 +8817,7 @@
         <v>100</v>
       </c>
       <c r="K239" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
@@ -8852,7 +8852,7 @@
         <v>100</v>
       </c>
       <c r="K240" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241">
@@ -8887,7 +8887,7 @@
         <v>100</v>
       </c>
       <c r="K241" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242">
@@ -8922,7 +8922,7 @@
         <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
@@ -8957,7 +8957,7 @@
         <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
@@ -8992,7 +8992,7 @@
         <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245">
@@ -9027,7 +9027,7 @@
         <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246">
@@ -9062,7 +9062,7 @@
         <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -9097,7 +9097,7 @@
         <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
@@ -9132,7 +9132,7 @@
         <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249">
@@ -9167,7 +9167,7 @@
         <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250">
@@ -9202,7 +9202,7 @@
         <v>100</v>
       </c>
       <c r="K250" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251">
@@ -9237,7 +9237,7 @@
         <v>100</v>
       </c>
       <c r="K251" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
@@ -9272,7 +9272,7 @@
         <v>100</v>
       </c>
       <c r="K252" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253">
@@ -9307,7 +9307,7 @@
         <v>100</v>
       </c>
       <c r="K253" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254">
@@ -9342,7 +9342,7 @@
         <v>100</v>
       </c>
       <c r="K254" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -9377,7 +9377,7 @@
         <v>100</v>
       </c>
       <c r="K255" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -9412,7 +9412,7 @@
         <v>100</v>
       </c>
       <c r="K256" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -9447,7 +9447,7 @@
         <v>100</v>
       </c>
       <c r="K257" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -9482,7 +9482,7 @@
         <v>100</v>
       </c>
       <c r="K258" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -9517,7 +9517,7 @@
         <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -9552,7 +9552,7 @@
         <v>100</v>
       </c>
       <c r="K260" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
@@ -9587,7 +9587,7 @@
         <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
@@ -9622,7 +9622,7 @@
         <v>100</v>
       </c>
       <c r="K262" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263">
@@ -9657,7 +9657,7 @@
         <v>100</v>
       </c>
       <c r="K263" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
@@ -9692,7 +9692,7 @@
         <v>100</v>
       </c>
       <c r="K264" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
@@ -9727,7 +9727,7 @@
         <v>100</v>
       </c>
       <c r="K265" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
@@ -9762,7 +9762,7 @@
         <v>100</v>
       </c>
       <c r="K266" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267">
@@ -9797,7 +9797,7 @@
         <v>100</v>
       </c>
       <c r="K267" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -9832,7 +9832,7 @@
         <v>100</v>
       </c>
       <c r="K268" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269">
@@ -9867,7 +9867,7 @@
         <v>100</v>
       </c>
       <c r="K269" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270">
@@ -9902,7 +9902,7 @@
         <v>100</v>
       </c>
       <c r="K270" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271">
@@ -9937,7 +9937,7 @@
         <v>100</v>
       </c>
       <c r="K271" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272">
@@ -9972,7 +9972,7 @@
         <v>100</v>
       </c>
       <c r="K272" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273">
@@ -10007,7 +10007,7 @@
         <v>100</v>
       </c>
       <c r="K273" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274">
@@ -10042,7 +10042,7 @@
         <v>100</v>
       </c>
       <c r="K274" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275">
@@ -10077,7 +10077,7 @@
         <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276">
@@ -10112,7 +10112,7 @@
         <v>100</v>
       </c>
       <c r="K276" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277">
@@ -10147,7 +10147,7 @@
         <v>100</v>
       </c>
       <c r="K277" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -10182,7 +10182,7 @@
         <v>100</v>
       </c>
       <c r="K278" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279">
@@ -10217,7 +10217,7 @@
         <v>100</v>
       </c>
       <c r="K279" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -10252,7 +10252,7 @@
         <v>100</v>
       </c>
       <c r="K280" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="281">
@@ -10287,7 +10287,7 @@
         <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
@@ -10322,7 +10322,7 @@
         <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283">
@@ -10357,7 +10357,7 @@
         <v>100</v>
       </c>
       <c r="K283" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284">
@@ -10392,7 +10392,7 @@
         <v>100</v>
       </c>
       <c r="K284" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285">
@@ -10427,7 +10427,7 @@
         <v>100</v>
       </c>
       <c r="K285" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286">
@@ -10462,7 +10462,7 @@
         <v>100</v>
       </c>
       <c r="K286" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287">
@@ -10497,7 +10497,7 @@
         <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288">
@@ -10532,7 +10532,7 @@
         <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289">
@@ -10567,7 +10567,7 @@
         <v>100</v>
       </c>
       <c r="K289" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290">
@@ -10602,7 +10602,7 @@
         <v>100</v>
       </c>
       <c r="K290" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
@@ -10637,7 +10637,7 @@
         <v>100</v>
       </c>
       <c r="K291" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
@@ -10672,7 +10672,7 @@
         <v>100</v>
       </c>
       <c r="K292" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293">
@@ -10707,7 +10707,7 @@
         <v>100</v>
       </c>
       <c r="K293" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294">
@@ -10742,7 +10742,7 @@
         <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
@@ -10777,7 +10777,7 @@
         <v>100</v>
       </c>
       <c r="K295" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
@@ -10812,7 +10812,7 @@
         <v>100</v>
       </c>
       <c r="K296" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297">
@@ -10847,7 +10847,7 @@
         <v>100</v>
       </c>
       <c r="K297" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -10882,7 +10882,7 @@
         <v>100</v>
       </c>
       <c r="K298" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299">
@@ -10917,7 +10917,7 @@
         <v>100</v>
       </c>
       <c r="K299" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="300">
@@ -10952,7 +10952,7 @@
         <v>100</v>
       </c>
       <c r="K300" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301">
@@ -10987,7 +10987,7 @@
         <v>100</v>
       </c>
       <c r="K301" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302">
@@ -11022,7 +11022,7 @@
         <v>100</v>
       </c>
       <c r="K302" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303">
@@ -11057,7 +11057,7 @@
         <v>100</v>
       </c>
       <c r="K303" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304">
@@ -11092,7 +11092,7 @@
         <v>100</v>
       </c>
       <c r="K304" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305">
@@ -11127,7 +11127,7 @@
         <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306">
@@ -11162,7 +11162,7 @@
         <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307">
@@ -11197,7 +11197,7 @@
         <v>100</v>
       </c>
       <c r="K307" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308">
@@ -11232,7 +11232,7 @@
         <v>100</v>
       </c>
       <c r="K308" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309">
@@ -11267,7 +11267,7 @@
         <v>100</v>
       </c>
       <c r="K309" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310">
@@ -11302,7 +11302,7 @@
         <v>100</v>
       </c>
       <c r="K310" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311">
@@ -11337,7 +11337,7 @@
         <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312">
@@ -11372,7 +11372,7 @@
         <v>100</v>
       </c>
       <c r="K312" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313">
@@ -11407,7 +11407,7 @@
         <v>100</v>
       </c>
       <c r="K313" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314">
@@ -11442,7 +11442,7 @@
         <v>100</v>
       </c>
       <c r="K314" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="315">
@@ -11477,7 +11477,7 @@
         <v>100</v>
       </c>
       <c r="K315" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="316">
@@ -11512,7 +11512,7 @@
         <v>100</v>
       </c>
       <c r="K316" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="317">
@@ -11547,7 +11547,7 @@
         <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="318">
@@ -11582,7 +11582,7 @@
         <v>100</v>
       </c>
       <c r="K318" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319">
@@ -11617,7 +11617,7 @@
         <v>100</v>
       </c>
       <c r="K319" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="320">
@@ -11652,7 +11652,7 @@
         <v>100</v>
       </c>
       <c r="K320" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321">
@@ -11687,7 +11687,7 @@
         <v>100</v>
       </c>
       <c r="K321" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322">
@@ -11722,7 +11722,7 @@
         <v>100</v>
       </c>
       <c r="K322" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323">
@@ -11757,7 +11757,7 @@
         <v>100</v>
       </c>
       <c r="K323" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="324">
@@ -11792,7 +11792,7 @@
         <v>100</v>
       </c>
       <c r="K324" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325">
@@ -11827,7 +11827,7 @@
         <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
